--- a/files/tabletki/1149 Пассат.xlsx
+++ b/files/tabletki/1149 Пассат.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cev\Desktop\нк\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\marketing.com\marketing\files\tabletki\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF04C30-7E7A-44EE-A440-74840B7FB582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7620"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t/>
   </si>
@@ -139,60 +140,12 @@
   </si>
   <si>
     <t>D9537</t>
-  </si>
-  <si>
-    <t>D9538</t>
-  </si>
-  <si>
-    <t>D9539</t>
-  </si>
-  <si>
-    <t>D9540</t>
-  </si>
-  <si>
-    <t>D9541</t>
-  </si>
-  <si>
-    <t>D9542</t>
-  </si>
-  <si>
-    <t>D9543</t>
-  </si>
-  <si>
-    <t>D9544</t>
-  </si>
-  <si>
-    <t>D9545</t>
-  </si>
-  <si>
-    <t>D9546</t>
-  </si>
-  <si>
-    <t>D9547</t>
-  </si>
-  <si>
-    <t>D9548</t>
-  </si>
-  <si>
-    <t>D9549</t>
-  </si>
-  <si>
-    <t>D9550</t>
-  </si>
-  <si>
-    <t>D9551</t>
-  </si>
-  <si>
-    <t>D9552</t>
-  </si>
-  <si>
-    <t>D9553</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,11 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -608,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -622,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -636,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -650,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -664,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -678,7 +631,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -692,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -706,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -720,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -734,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -748,7 +701,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -762,7 +715,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -776,7 +729,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -790,7 +743,7 @@
         <v>31</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -804,7 +757,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
